--- a/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_15.xlsx
+++ b/Algoritmo_Rota/Planilhas_Unitario/BCU/PLN_42_15.xlsx
@@ -454,7 +454,7 @@
         <v>4053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06008696556091309</v>
+        <v>0.0586707592010498</v>
       </c>
     </row>
   </sheetData>
